--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD074BAB-A49C-48A1-B3A3-06D332331DEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8D069-47E3-4C8D-AF83-68AD0EF54B9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3780" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="3525" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,18 +46,12 @@
     <t>^ both kids edu done. Burn rate=&gt;3k/M</t>
   </si>
   <si>
-    <t>cpfLife</t>
-  </si>
-  <si>
     <t>7Y</t>
   </si>
   <si>
     <t>her age</t>
   </si>
   <si>
-    <t>&lt;-optional top up</t>
-  </si>
-  <si>
     <t>3Y</t>
   </si>
   <si>
@@ -71,15 +65,22 @@
   </si>
   <si>
     <t>Background: https://tanbinvest.dreamhosters.com/21667/21nestegg-enuf2preempt-stressful-return2u-s/</t>
+  </si>
+  <si>
+    <t>cpfLife/Y</t>
+  </si>
+  <si>
+    <t>&lt;-optional top up for wife</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -127,13 +128,13 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,296 +418,298 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>28672</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>27030</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>36</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
         <v>1120</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>YEARFRAC($D$2,F4)</f>
         <v>43.416666666666664</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>YEARFRAC($E$2,F4)</f>
         <v>47.916666666666664</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>44531</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
         <f>-DATEDIF(F4,F6, "m")*$G$2</f>
         <v>-504</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3">
         <f>DATEDIF(F4,F6, "y")*$J$2</f>
         <v>700</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <f>C4+SUM(G5:J5)</f>
         <v>1316</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>YEARFRAC($D$2,F6)</f>
         <v>50.416666666666664</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f>YEARFRAC($E$2,F6)</f>
         <v>54.916666666666664</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>47088</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
         <f>-DATEDIF(F6,F8, "m")*$G$2</f>
         <v>-504</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>-400</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>-200</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>15</v>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
         <f>C6+SUM(G7:I7)</f>
         <v>212</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>YEARFRAC($D$2,F8)</f>
         <v>57.416666666666664</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f>YEARFRAC($E$2,F8)</f>
         <v>61.916666666666664</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>49644</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
         <f>-DATEDIF(F8,F10, "m")*3</f>
         <v>-111</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4">
+      <c r="H9" s="2"/>
+      <c r="I9" s="3">
         <v>-100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
         <f>C8+SUM(G9:I9)</f>
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f>YEARFRAC($D$2,F10)</f>
         <v>60.5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>YEARFRAC($E$2,F10)</f>
         <v>65</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>50771</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3">
         <f>-DATEDIF(F10,F12, "m")*3</f>
         <v>-162</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4">
+      <c r="H11" s="2"/>
+      <c r="I11" s="3">
         <f>DATEDIF(F10,F12, "m")*3</f>
         <v>162</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
         <f>C10+SUM(G11:I11)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f>YEARFRAC($D$2,F12)</f>
         <v>65</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6">
+      <c r="E12" s="2"/>
+      <c r="F12" s="7">
         <v>52413</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8D069-47E3-4C8D-AF83-68AD0EF54B9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3220A2-AD50-4DA0-B96E-AEB02314A419}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="3525" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10920" yWindow="3270" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>month!!date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>cpf</t>
   </si>
   <si>
-    <t>non-CPF</t>
-  </si>
-  <si>
     <t>my age</t>
   </si>
   <si>
@@ -40,21 +34,6 @@
     <t>edu</t>
   </si>
   <si>
-    <t>^ Assuming no more sal</t>
-  </si>
-  <si>
-    <t>^ both kids edu done. Burn rate=&gt;3k/M</t>
-  </si>
-  <si>
-    <t>7Y</t>
-  </si>
-  <si>
-    <t>her age</t>
-  </si>
-  <si>
-    <t>3Y</t>
-  </si>
-  <si>
     <t>4k/M</t>
   </si>
   <si>
@@ -67,10 +46,37 @@
     <t>Background: https://tanbinvest.dreamhosters.com/21667/21nestegg-enuf2preempt-stressful-return2u-s/</t>
   </si>
   <si>
-    <t>cpfLife/Y</t>
-  </si>
-  <si>
     <t>&lt;-optional top up for wife</t>
+  </si>
+  <si>
+    <t>[1] includes (x-ccy) assets that can convert to cash</t>
+  </si>
+  <si>
+    <t>ZLH age</t>
+  </si>
+  <si>
+    <t>ex-CPF[1]</t>
+  </si>
+  <si>
+    <t>cpfLife/m</t>
+  </si>
+  <si>
+    <t>snapMonth</t>
+  </si>
+  <si>
+    <t>7Y window</t>
+  </si>
+  <si>
+    <t>3Y window</t>
+  </si>
+  <si>
+    <t>At this juncture, both kids edu done. Burn rate=&gt;3k/M</t>
+  </si>
+  <si>
+    <t>dry-up[2]</t>
+  </si>
+  <si>
+    <t>[2] assuming I choose to a low-pay, low stress job</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,11 +128,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -135,6 +154,8 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,27 +436,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D2" s="5">
         <v>28672</v>
       </c>
@@ -445,42 +470,42 @@
       <c r="G2" s="2">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>1120</v>
@@ -498,34 +523,31 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3">
-        <f>-DATEDIF(F4,F6, "m")*$G$2</f>
+        <f>-DATEDIF(F4,F7, "m")*$G$2</f>
         <v>-504</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3">
-        <f>DATEDIF(F4,F6, "y")*$J$2</f>
+      <c r="I5" s="3">
+        <f>DATEDIF(F4,F7, "y")*$I$2</f>
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <f>C4+SUM(G5:J5)</f>
-        <v>1316</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="6">
         <f>YEARFRAC($D$2,F6)</f>
         <v>50.416666666666664</v>
@@ -538,152 +560,161 @@
         <v>47088</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <f>C4+SUM(G5:J5)</f>
+        <v>1316</v>
+      </c>
+      <c r="D7" s="6">
+        <f>YEARFRAC($D$2,F7)</f>
+        <v>50.416666666666664</v>
+      </c>
+      <c r="E7" s="4">
+        <f>YEARFRAC($E$2,F7)</f>
+        <v>54.916666666666664</v>
+      </c>
+      <c r="F7" s="7">
+        <v>47088</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3">
+        <f>-DATEDIF(F7,F9, "m")*$G$2</f>
+        <v>-504</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-400</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
-        <f>-DATEDIF(F6,F8, "m")*$G$2</f>
-        <v>-504</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-400</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <f>C6+SUM(G7:I7)</f>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <f>C7+SUM(G8:J8)</f>
         <v>212</v>
       </c>
-      <c r="D8" s="6">
-        <f>YEARFRAC($D$2,F8)</f>
+      <c r="D9" s="6">
+        <f>YEARFRAC($D$2,F9)</f>
         <v>57.416666666666664</v>
       </c>
-      <c r="E8" s="4">
-        <f>YEARFRAC($E$2,F8)</f>
+      <c r="E9" s="4">
+        <f>YEARFRAC($E$2,F9)</f>
         <v>61.916666666666664</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>49644</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3">
-        <f>-DATEDIF(F8,F10, "m")*3</f>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <f>-DATEDIF(F9,F11, "m")*3</f>
         <v>-111</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <f>C8+SUM(G9:I9)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <f>YEARFRAC($D$2,F10)</f>
-        <v>60.5</v>
-      </c>
-      <c r="E10" s="4">
-        <f>YEARFRAC($E$2,F10)</f>
-        <v>65</v>
-      </c>
-      <c r="F10" s="7">
-        <v>50771</v>
-      </c>
-      <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3">
-        <f>-DATEDIF(F10,F12, "m")*3</f>
+      <c r="C11" s="3">
+        <f>C9+SUM(G10:J10)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4">
+        <f>YEARFRAC($E$2,F11)</f>
+        <v>65</v>
+      </c>
+      <c r="F11" s="7">
+        <v>50771</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3">
+        <f>-DATEDIF(F11,F13, "m")*3</f>
         <v>-162</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3">
-        <f>DATEDIF(F10,F12, "m")*3</f>
-        <v>162</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <f>C10+SUM(G11:I11)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <f>YEARFRAC($D$2,F12)</f>
-        <v>65</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7">
-        <v>52413</v>
-      </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <f>DATEDIF(F11,F13, "m")*$J$2</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3">
+        <f>C11+SUM(G12:J12)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <f>YEARFRAC($D$2,F13)</f>
+        <v>65</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>52413</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -692,24 +723,44 @@
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3220A2-AD50-4DA0-B96E-AEB02314A419}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E45F1B7-D52A-4B70-87E5-D0A00FE14429}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="3270" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="3615" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>cpf</t>
   </si>
@@ -34,9 +34,6 @@
     <t>edu</t>
   </si>
   <si>
-    <t>4k/M</t>
-  </si>
-  <si>
     <t>burn/m</t>
   </si>
   <si>
@@ -77,6 +74,12 @@
   </si>
   <si>
     <t>[2] assuming I choose to a low-pay, low stress job</t>
+  </si>
+  <si>
+    <t>bal</t>
+  </si>
+  <si>
+    <t>incr to 4k/M</t>
   </si>
 </sst>
 </file>
@@ -145,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -156,6 +159,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,322 +453,343 @@
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="4" max="4" width="1.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="5">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="E2" s="5">
         <v>28672</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>27030</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="2">
+      <c r="I2" s="8"/>
+      <c r="J2" s="2">
         <v>100</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>1120</v>
       </c>
-      <c r="D4" s="6">
-        <f>YEARFRAC($D$2,F4)</f>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6">
+        <f>YEARFRAC($E$2,G4)</f>
         <v>43.416666666666664</v>
       </c>
-      <c r="E4" s="4">
-        <f>YEARFRAC($E$2,F4)</f>
+      <c r="F4" s="4">
+        <f>YEARFRAC($F$2,G4)</f>
         <v>47.916666666666664</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>44531</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3">
-        <f>-DATEDIF(F4,F7, "m")*$G$2</f>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3">
+        <f>-DATEDIF(G4,G7, "m")*$H$2</f>
         <v>-504</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3">
-        <f>DATEDIF(F4,F7, "y")*$I$2</f>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3">
+        <f>DATEDIF(G4,G7, "y")*$J$2</f>
         <v>700</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="6">
-        <f>YEARFRAC($D$2,F6)</f>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6">
+        <f>YEARFRAC($E$2,G6)</f>
         <v>50.416666666666664</v>
       </c>
-      <c r="E6" s="4">
-        <f>YEARFRAC($E$2,F6)</f>
+      <c r="F6" s="4">
+        <f>YEARFRAC($F$2,G6)</f>
         <v>54.916666666666664</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>47088</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <f>C4+SUM(G5:J5)</f>
+        <f>C4+SUM(H5:K5)</f>
         <v>1316</v>
       </c>
-      <c r="D7" s="6">
-        <f>YEARFRAC($D$2,F7)</f>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6">
+        <f>YEARFRAC($E$2,G7)</f>
         <v>50.416666666666664</v>
       </c>
-      <c r="E7" s="4">
-        <f>YEARFRAC($E$2,F7)</f>
+      <c r="F7" s="4">
+        <f>YEARFRAC($F$2,G7)</f>
         <v>54.916666666666664</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>47088</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3">
-        <f>-DATEDIF(F7,F9, "m")*$G$2</f>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3">
+        <f>-DATEDIF(G7,G9, "m")*$H$2</f>
         <v>-504</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>-400</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>-200</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <f>C7+SUM(G8:J8)</f>
+        <f>C7+SUM(H8:K8)</f>
         <v>212</v>
       </c>
-      <c r="D9" s="6">
-        <f>YEARFRAC($D$2,F9)</f>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6">
+        <f>YEARFRAC($E$2,G9)</f>
         <v>57.416666666666664</v>
       </c>
-      <c r="E9" s="4">
-        <f>YEARFRAC($E$2,F9)</f>
+      <c r="F9" s="4">
+        <f>YEARFRAC($F$2,G9)</f>
         <v>61.916666666666664</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>49644</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
+      <c r="L9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
-        <f>-DATEDIF(F9,F11, "m")*3</f>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3">
+        <f>-DATEDIF(G9,G11, "m")*3</f>
         <v>-111</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <f>C9+SUM(G10:J10)</f>
+        <f>C9+SUM(H10:K10)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4">
-        <f>YEARFRAC($E$2,F11)</f>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4">
+        <f>YEARFRAC($F$2,G11)</f>
         <v>65</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>50771</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3">
-        <f>-DATEDIF(F11,F13, "m")*3</f>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3">
+        <f>-DATEDIF(G11,G13, "m")*3</f>
         <v>-162</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <f>DATEDIF(F11,F13, "m")*$J$2</f>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3">
+        <f>DATEDIF(G11,G13, "m")*$K$2</f>
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <f>C11+SUM(G12:J12)</f>
+        <f>C11+SUM(H12:K12)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="6">
-        <f>YEARFRAC($D$2,F13)</f>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6">
+        <f>YEARFRAC($E$2,G13)</f>
         <v>65</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7">
+      <c r="F13" s="2"/>
+      <c r="G13" s="7">
         <v>52413</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E45F1B7-D52A-4B70-87E5-D0A00FE14429}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A940DDE-85DD-4727-B52F-884AC8B5B3F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="3615" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2355" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="numbers extracted" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,44 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>cpf</t>
   </si>
   <si>
-    <t>my age</t>
-  </si>
-  <si>
-    <t>sal/Y/k</t>
-  </si>
-  <si>
-    <t>edu</t>
-  </si>
-  <si>
-    <t>burn/m</t>
-  </si>
-  <si>
-    <t>&lt;-top up to ERS</t>
-  </si>
-  <si>
     <t>Background: https://tanbinvest.dreamhosters.com/21667/21nestegg-enuf2preempt-stressful-return2u-s/</t>
   </si>
   <si>
-    <t>&lt;-optional top up for wife</t>
-  </si>
-  <si>
     <t>[1] includes (x-ccy) assets that can convert to cash</t>
   </si>
   <si>
-    <t>ZLH age</t>
-  </si>
-  <si>
-    <t>ex-CPF[1]</t>
-  </si>
-  <si>
-    <t>cpfLife/m</t>
-  </si>
-  <si>
     <t>snapMonth</t>
   </si>
   <si>
@@ -67,31 +41,75 @@
     <t>3Y window</t>
   </si>
   <si>
-    <t>At this juncture, both kids edu done. Burn rate=&gt;3k/M</t>
-  </si>
-  <si>
     <t>dry-up[2]</t>
   </si>
   <si>
-    <t>[2] assuming I choose to a low-pay, low stress job</t>
-  </si>
-  <si>
-    <t>bal</t>
-  </si>
-  <si>
     <t>incr to 4k/M</t>
+  </si>
+  <si>
+    <t>non-CPF[1]</t>
+  </si>
+  <si>
+    <t>tgt bal</t>
+  </si>
+  <si>
+    <t>&lt;-top up to ERS at age 55</t>
+  </si>
+  <si>
+    <t>4.5Y window</t>
+  </si>
+  <si>
+    <t>cpfLife/M assum` $3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZLH age:
+Jul-78 </t>
+  </si>
+  <si>
+    <t>my age:
+Jan-74</t>
+  </si>
+  <si>
+    <t>burnrate/M assum` $6000</t>
+  </si>
+  <si>
+    <t>&lt;- At this juncture, both kids edu done. Burn rate=&gt;3k/M</t>
+  </si>
+  <si>
+    <t>cpf
+TopUp</t>
+  </si>
+  <si>
+    <t>sal/Y assum`
+$150,000</t>
+  </si>
+  <si>
+    <t>&lt;-top up to wife cprRA[3]</t>
+  </si>
+  <si>
+    <t>[3] wife needs reassurance that she can receive meaningful  amount from her own cpfLife</t>
+  </si>
+  <si>
+    <t>[2] For simplicity, assume retirement, not a low-pay, low stress job</t>
+  </si>
+  <si>
+    <t>edu [4]</t>
+  </si>
+  <si>
+    <t>[4] 200k sounds like decent reserve, but there is no minimum IMO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +117,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -144,24 +189,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,88 +516,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L19"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9"/>
+    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I1" s="9"/>
-    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="E2" s="22">
+        <f>DATEVALUE(CLEAN(RIGHT(E3,LEN(E3)-FIND(":",E3))))</f>
+        <v>28672</v>
+      </c>
+      <c r="F2" s="22">
+        <f>DATEVALUE(CLEAN(RIGHT(F3,LEN(F3)-FIND(":",F3))))</f>
+        <v>27030</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="str">
+        <f>RIGHT(H3,LEN(H3)-FIND("$",H3))</f>
+        <v>6000</v>
+      </c>
+      <c r="I2" s="23" t="str">
+        <f>RIGHT(I3,LEN(I3)-FIND("$",I3))</f>
+        <v>150,000</v>
+      </c>
+      <c r="J2" s="23" t="str">
+        <f>RIGHT(I13,LEN(I13)-FIND("$",I13))</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="5">
-        <v>28672</v>
-      </c>
-      <c r="F2" s="5">
-        <v>27030</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="2">
-        <v>100</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="J3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
-        <v>1120</v>
+        <v>770</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>YEARFRAC($E$2,G4)</f>
         <v>43.416666666666664</v>
       </c>
@@ -531,13 +608,12 @@
         <f>YEARFRAC($F$2,G4)</f>
         <v>47.916666666666664</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>44531</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -545,25 +621,28 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="H5" s="3">
-        <f>-DATEDIF(G4,G7, "m")*$H$2</f>
+        <f>-DATEDIF(G4,G8, "m")*$H$2/1000</f>
         <v>-504</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3">
-        <f>DATEDIF(G4,G7, "y")*$J$2</f>
-        <v>700</v>
-      </c>
-      <c r="K5" s="2"/>
+      <c r="I5" s="3">
+        <f>DATEDIF(G4,G8, "y")*$I$2/1000</f>
+        <v>1050</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="L5" s="14" t="str">
+        <f ca="1">IFERROR(MID(#REF!,ROW(INDIRECT("1:"&amp;LEN(#REF!))),1)*1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>YEARFRAC($E$2,G6)</f>
         <v>50.416666666666664</v>
       </c>
@@ -571,170 +650,157 @@
         <f>YEARFRAC($F$2,G6)</f>
         <v>54.916666666666664</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>47088</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <f>C4+SUM(H5:K5)</f>
-        <v>1316</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6">
-        <f>YEARFRAC($E$2,G7)</f>
-        <v>50.416666666666664</v>
-      </c>
-      <c r="F7" s="4">
-        <f>YEARFRAC($F$2,G7)</f>
-        <v>54.916666666666664</v>
-      </c>
-      <c r="G7" s="7">
-        <v>47088</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="L6" s="14" t="str">
+        <f ca="1">_xlfn.TEXTJOIN("",TRUE,L5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <f>C4+SUM(H5:J5)</f>
+        <v>1316</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="3">
-        <f>-DATEDIF(G7,G9, "m")*$H$2</f>
-        <v>-504</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-400</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>5</v>
+      <c r="E8" s="5">
+        <f>YEARFRAC($E$2,G8)</f>
+        <v>50.416666666666664</v>
+      </c>
+      <c r="F8" s="4">
+        <f>YEARFRAC($F$2,G8)</f>
+        <v>54.916666666666664</v>
+      </c>
+      <c r="G8" s="6">
+        <v>47088</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="L8" s="14" t="str">
+        <f ca="1">_xlfn.CONCAT(L5)</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="3">
-        <f>C7+SUM(H8:K8)</f>
-        <v>212</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="6">
-        <f>YEARFRAC($E$2,G9)</f>
-        <v>57.416666666666664</v>
-      </c>
-      <c r="F9" s="4">
-        <f>YEARFRAC($F$2,G9)</f>
-        <v>61.916666666666664</v>
-      </c>
-      <c r="G9" s="7">
-        <v>49644</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="9" t="s">
-        <v>15</v>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <f>-DATEDIF(G8,G10, "m")*$H$2/1000</f>
+        <v>-504</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <f>C8+SUM(H9:J9)</f>
+        <v>212</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3">
-        <f>-DATEDIF(G9,G11, "m")*3</f>
-        <v>-111</v>
+      <c r="E10" s="5">
+        <f>YEARFRAC($E$2,G10)</f>
+        <v>57.416666666666664</v>
+      </c>
+      <c r="F10" s="4">
+        <f>YEARFRAC($F$2,G10)</f>
+        <v>61.916666666666664</v>
+      </c>
+      <c r="G10" s="6">
+        <v>49644</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <f>C9+SUM(H10:K10)</f>
-        <v>1</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4">
-        <f>YEARFRAC($F$2,G11)</f>
-        <v>65</v>
-      </c>
-      <c r="G11" s="7">
-        <v>50771</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="3">
-        <f>-DATEDIF(G11,G13, "m")*3</f>
-        <v>-162</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
-        <f>DATEDIF(G11,G13, "m")*$K$2</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <f>-DATEDIF(G10,G13, "m")*3</f>
+        <v>-111</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3">
-        <f>C11+SUM(H12:K12)</f>
+        <f>C10+SUM(H11:J11)</f>
         <v>1</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="6">
-        <f>YEARFRAC($E$2,G13)</f>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4">
+        <f>YEARFRAC($F$2,G13)</f>
         <v>65</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7">
-        <v>52413</v>
+      <c r="G13" s="6">
+        <v>50771</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -742,55 +808,112 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
+        <f>-DATEDIF(G13,G15, "m")*3</f>
+        <v>-162</v>
+      </c>
+      <c r="I14" s="3">
+        <f>DATEDIF(G13,G15, "m")*J2/1000</f>
+        <v>162</v>
+      </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <f>C13+SUM(H14:J14)</f>
+        <v>1</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="5">
+        <f>YEARFRAC($E$2,G15)</f>
+        <v>65</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6">
+        <v>52413</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>17</v>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658ED645-D1CA-42ED-8997-C95A14CF61B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A940DDE-85DD-4727-B52F-884AC8B5B3F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735C948-EC2A-494F-B0E5-22B16CCF4F4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="numbers extracted" sheetId="2" r:id="rId2"/>
+    <sheet name="MSExcel tricks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>cpf</t>
   </si>
@@ -44,12 +44,6 @@
     <t>dry-up[2]</t>
   </si>
   <si>
-    <t>incr to 4k/M</t>
-  </si>
-  <si>
-    <t>non-CPF[1]</t>
-  </si>
-  <si>
     <t>tgt bal</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
   </si>
   <si>
     <t>4.5Y window</t>
-  </si>
-  <si>
-    <t>cpfLife/M assum` $3000</t>
   </si>
   <si>
     <t xml:space="preserve">ZLH age:
@@ -70,9 +61,6 @@
 Jan-74</t>
   </si>
   <si>
-    <t>burnrate/M assum` $6000</t>
-  </si>
-  <si>
     <t>&lt;- At this juncture, both kids edu done. Burn rate=&gt;3k/M</t>
   </si>
   <si>
@@ -80,10 +68,6 @@
 TopUp</t>
   </si>
   <si>
-    <t>sal/Y assum`
-$150,000</t>
-  </si>
-  <si>
     <t>&lt;-top up to wife cprRA[3]</t>
   </si>
   <si>
@@ -97,30 +81,53 @@
   </si>
   <si>
     <t>[4] 200k sounds like decent reserve, but there is no minimum IMO</t>
+  </si>
+  <si>
+    <t>cpfLife/M $3000</t>
+  </si>
+  <si>
+    <t>4k/M?</t>
+  </si>
+  <si>
+    <t>non-CPF
+[1]</t>
+  </si>
+  <si>
+    <t>sal/Y
+$100,000</t>
+  </si>
+  <si>
+    <t>burnRate/M $6000</t>
+  </si>
+  <si>
+    <t>dateval</t>
+  </si>
+  <si>
+    <t>extractor formula</t>
+  </si>
+  <si>
+    <t>prefix "age" or suffix "k"</t>
+  </si>
+  <si>
+    <t>dateDif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;age&quot;\ 00.0"/>
+    <numFmt numFmtId="168" formatCode="General&quot;k&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,6 +141,20 @@
     <font>
       <sz val="8"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,40 +223,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,350 +545,350 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="E2" s="22">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="E2" s="6">
         <f>DATEVALUE(CLEAN(RIGHT(E3,LEN(E3)-FIND(":",E3))))</f>
         <v>28672</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="6">
         <f>DATEVALUE(CLEAN(RIGHT(F3,LEN(F3)-FIND(":",F3))))</f>
         <v>27030</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="str">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="str">
         <f>RIGHT(H3,LEN(H3)-FIND("$",H3))</f>
         <v>6000</v>
       </c>
-      <c r="I2" s="23" t="str">
+      <c r="I2" s="7" t="str">
         <f>RIGHT(I3,LEN(I3)-FIND("$",I3))</f>
-        <v>150,000</v>
-      </c>
-      <c r="J2" s="23" t="str">
+        <v>100,000</v>
+      </c>
+      <c r="J2" s="7" t="str">
         <f>RIGHT(I13,LEN(I13)-FIND("$",I13))</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>770</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5">
-        <f>YEARFRAC($E$2,G4)</f>
-        <v>43.416666666666664</v>
-      </c>
-      <c r="F4" s="4">
-        <f>YEARFRAC($F$2,G4)</f>
-        <v>47.916666666666664</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="27">
+        <v>1120</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="26">
+        <f>DATEDIF($E$2,G4,"y")</f>
+        <v>43</v>
+      </c>
+      <c r="F4" s="26">
+        <f>DATEDIF($F$2,G4,"y")</f>
+        <v>47</v>
+      </c>
+      <c r="G4" s="12">
         <v>44531</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="27">
         <f>-DATEDIF(G4,G8, "m")*$H$2/1000</f>
         <v>-504</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="27">
         <f>DATEDIF(G4,G8, "y")*$I$2/1000</f>
-        <v>1050</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="L5" s="14" t="str">
+        <v>700</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="L5" s="3" t="str">
         <f ca="1">IFERROR(MID(#REF!,ROW(INDIRECT("1:"&amp;LEN(#REF!))),1)*1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5">
-        <f>YEARFRAC($E$2,G6)</f>
-        <v>50.416666666666664</v>
-      </c>
-      <c r="F6" s="4">
-        <f>YEARFRAC($F$2,G6)</f>
-        <v>54.916666666666664</v>
-      </c>
-      <c r="G6" s="6">
+    <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="26">
+        <f>DATEDIF($E$2,G6,"y")</f>
+        <v>50</v>
+      </c>
+      <c r="F6" s="26">
+        <f>DATEDIF($F$2,G6,"y")</f>
+        <v>54</v>
+      </c>
+      <c r="G6" s="12">
         <v>47088</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="L6" s="14" t="str">
+      <c r="J6" s="10"/>
+      <c r="L6" s="3" t="str">
         <f ca="1">_xlfn.TEXTJOIN("",TRUE,L5)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="2:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="27">
         <f>C4+SUM(H5:J5)</f>
         <v>1316</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5">
-        <f>YEARFRAC($E$2,G8)</f>
-        <v>50.416666666666664</v>
-      </c>
-      <c r="F8" s="4">
-        <f>YEARFRAC($F$2,G8)</f>
-        <v>54.916666666666664</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="D8" s="10"/>
+      <c r="E8" s="26">
+        <f>DATEDIF($E$2,G8,"y")</f>
+        <v>50</v>
+      </c>
+      <c r="F8" s="26">
+        <f>DATEDIF($F$2,G8,"y")</f>
+        <v>54</v>
+      </c>
+      <c r="G8" s="12">
         <v>47088</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="L8" s="14" t="str">
+      <c r="H8" s="10"/>
+      <c r="I8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="L8" s="3" t="str">
         <f ca="1">_xlfn.CONCAT(L5)</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6" t="s">
+    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="27">
         <f>-DATEDIF(G8,G10, "m")*$H$2/1000</f>
         <v>-504</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="27">
         <v>-400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="27">
         <v>-200</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="K9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="27">
         <f>C8+SUM(H9:J9)</f>
         <v>212</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5">
-        <f>YEARFRAC($E$2,G10)</f>
-        <v>57.416666666666664</v>
-      </c>
-      <c r="F10" s="4">
-        <f>YEARFRAC($F$2,G10)</f>
-        <v>61.916666666666664</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="D10" s="10"/>
+      <c r="E10" s="26">
+        <f>DATEDIF($E$2,G10,"y")</f>
+        <v>57</v>
+      </c>
+      <c r="F10" s="26">
+        <f>DATEDIF($F$2,G10,"y")</f>
+        <v>61</v>
+      </c>
+      <c r="G10" s="12">
         <v>49644</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6" t="s">
+      <c r="H10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="27">
         <f>-DATEDIF(G10,G13, "m")*3</f>
         <v>-111</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="I11" s="10"/>
+      <c r="J11" s="27">
         <v>-100</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>19</v>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10">
         <f>C10+SUM(H11:J11)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4">
-        <f>YEARFRAC($F$2,G13)</f>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="26">
+        <f>DATEDIF($F$2,G13,"y")</f>
         <v>65</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="12">
         <v>50771</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H13" s="10"/>
+      <c r="I13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="27">
         <f>-DATEDIF(G13,G15, "m")*3</f>
         <v>-162</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="27">
         <f>DATEDIF(G13,G15, "m")*J2/1000</f>
         <v>162</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10">
         <f>C13+SUM(H14:J14)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5">
-        <f>YEARFRAC($E$2,G15)</f>
+      <c r="D15" s="10"/>
+      <c r="E15" s="26">
+        <f>DATEDIF($E$2,G15,"y")</f>
         <v>65</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6">
+      <c r="F15" s="13"/>
+      <c r="G15" s="12">
         <v>52413</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
@@ -882,17 +908,17 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
-        <v>20</v>
+      <c r="B22" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
-        <v>23</v>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -906,14 +932,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658ED645-D1CA-42ED-8997-C95A14CF61B9}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735C948-EC2A-494F-B0E5-22B16CCF4F4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AFA22F-E85B-415E-8830-82213B89851A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="2355" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>tgt bal</t>
   </si>
   <si>
-    <t>&lt;-top up to ERS at age 55</t>
-  </si>
-  <si>
     <t>4.5Y window</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
 TopUp</t>
   </si>
   <si>
-    <t>&lt;-top up to wife cprRA[3]</t>
-  </si>
-  <si>
     <t>[3] wife needs reassurance that she can receive meaningful  amount from her own cpfLife</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>dateDif</t>
+  </si>
+  <si>
+    <t>&lt;-top up to wife cprSA before 55[3]</t>
+  </si>
+  <si>
+    <t>&lt;-top up to ERS aft age 55</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -233,9 +233,6 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -262,6 +259,10 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,10 +566,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="27"/>
       <c r="E2" s="6">
         <f>DATEVALUE(CLEAN(RIGHT(E3,LEN(E3)-FIND(":",E3))))</f>
         <v>28672</v>
@@ -587,338 +588,349 @@
         <v>100,000</v>
       </c>
       <c r="J2" s="7" t="str">
-        <f>RIGHT(I13,LEN(I13)-FIND("$",I13))</f>
+        <f>RIGHT(I14,LEN(I14)-FIND("$",I14))</f>
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>13</v>
+      <c r="I3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="27">
+      <c r="B4" s="9"/>
+      <c r="C4" s="26">
         <v>1120</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="26">
+      <c r="D4" s="9"/>
+      <c r="E4" s="25">
         <f>DATEDIF($E$2,G4,"y")</f>
         <v>43</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <f>DATEDIF($F$2,G4,"y")</f>
         <v>47</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>44531</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <f>-DATEDIF(G4,G8, "m")*$H$2/1000</f>
         <v>-504</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <f>DATEDIF(G4,G8, "y")*$I$2/1000</f>
         <v>700</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="9"/>
       <c r="L5" s="3" t="str">
         <f ca="1">IFERROR(MID(#REF!,ROW(INDIRECT("1:"&amp;LEN(#REF!))),1)*1,"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="26">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="25">
         <f>DATEDIF($E$2,G6,"y")</f>
         <v>50</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <f>DATEDIF($F$2,G6,"y")</f>
         <v>54</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>47088</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="9"/>
       <c r="L6" s="3" t="str">
         <f ca="1">_xlfn.TEXTJOIN("",TRUE,L5)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="2:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="27">
+      <c r="B8" s="9"/>
+      <c r="C8" s="26">
         <f>C4+SUM(H5:J5)</f>
         <v>1316</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="26">
+      <c r="D8" s="9"/>
+      <c r="E8" s="25">
         <f>DATEDIF($E$2,G8,"y")</f>
         <v>50</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <f>DATEDIF($F$2,G8,"y")</f>
         <v>54</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>47088</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="13"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="12"/>
       <c r="L8" s="3" t="str">
         <f ca="1">_xlfn.CONCAT(L5)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="27">
-        <f>-DATEDIF(G8,G10, "m")*$H$2/1000</f>
+      <c r="H9" s="26">
+        <f>-DATEDIF(G8,G11, "m")*$H$2/1000</f>
         <v>-504</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>-400</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>-200</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26">
+        <v>-100</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="26">
+        <f>C8+SUM(H9:J10)</f>
+        <v>112</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="25">
+        <f>DATEDIF($E$2,G11,"y")</f>
+        <v>57</v>
+      </c>
+      <c r="F11" s="25">
+        <f>DATEDIF($F$2,G11,"y")</f>
+        <v>61</v>
+      </c>
+      <c r="G11" s="11">
+        <v>49644</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="26">
+        <f>-DATEDIF(G11,G14, "m")*3</f>
+        <v>-111</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="2:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <f>C11+SUM(H12:J12)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="25">
+        <f>DATEDIF($F$2,G14,"y")</f>
+        <v>65</v>
+      </c>
+      <c r="G14" s="11">
+        <v>50771</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="27">
-        <f>C8+SUM(H9:J9)</f>
-        <v>212</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="26">
-        <f>DATEDIF($E$2,G10,"y")</f>
-        <v>57</v>
-      </c>
-      <c r="F10" s="26">
-        <f>DATEDIF($F$2,G10,"y")</f>
-        <v>61</v>
-      </c>
-      <c r="G10" s="12">
-        <v>49644</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="27">
-        <f>-DATEDIF(G10,G13, "m")*3</f>
-        <v>-111</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="27">
-        <v>-100</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10">
-        <f>C10+SUM(H11:J11)</f>
+      <c r="H15" s="26">
+        <f>-DATEDIF(G14,G16, "m")*3</f>
+        <v>-162</v>
+      </c>
+      <c r="I15" s="26">
+        <f>DATEDIF(G14,G16, "m")*J2/1000</f>
+        <v>162</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9">
+        <f>C14+SUM(H15:J15)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="26">
-        <f>DATEDIF($F$2,G13,"y")</f>
+      <c r="D16" s="9"/>
+      <c r="E16" s="25">
+        <f>DATEDIF($E$2,G16,"y")</f>
         <v>65</v>
       </c>
-      <c r="G13" s="12">
-        <v>50771</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="27">
-        <f>-DATEDIF(G13,G15, "m")*3</f>
-        <v>-162</v>
-      </c>
-      <c r="I14" s="27">
-        <f>DATEDIF(G13,G15, "m")*J2/1000</f>
-        <v>162</v>
-      </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10">
-        <f>C13+SUM(H14:J14)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="26">
-        <f>DATEDIF($E$2,G15,"y")</f>
-        <v>65</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12">
+      <c r="F16" s="12"/>
+      <c r="G16" s="11">
         <v>52413</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>15</v>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -945,22 +957,22 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AFA22F-E85B-415E-8830-82213B89851A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB3C99E-7732-4037-A5B4-2C3A6F4DDAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2355" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -223,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -241,7 +250,6 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,7 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +553,7 @@
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,10 +573,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
       <c r="E2" s="6">
         <f>DATEVALUE(CLEAN(RIGHT(E3,LEN(E3)-FIND(":",E3))))</f>
         <v>28672</v>
@@ -593,29 +600,29 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="4"/>
@@ -623,15 +630,15 @@
     </row>
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>1120</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <f>DATEDIF($E$2,G4,"y")</f>
         <v>43</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <f>DATEDIF($F$2,G4,"y")</f>
         <v>47</v>
       </c>
@@ -651,11 +658,11 @@
       <c r="G5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <f>-DATEDIF(G4,G8, "m")*$H$2/1000</f>
         <v>-504</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <f>DATEDIF(G4,G8, "y")*$I$2/1000</f>
         <v>700</v>
       </c>
@@ -669,11 +676,11 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <f>DATEDIF($E$2,G6,"y")</f>
         <v>50</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f>DATEDIF($F$2,G6,"y")</f>
         <v>54</v>
       </c>
@@ -703,16 +710,16 @@
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f>C4+SUM(H5:J5)</f>
         <v>1316</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <f>DATEDIF($E$2,G8,"y")</f>
         <v>50</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f>DATEDIF($F$2,G8,"y")</f>
         <v>54</v>
       </c>
@@ -720,7 +727,7 @@
         <v>47088</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="12"/>
@@ -738,14 +745,14 @@
       <c r="G9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <f>-DATEDIF(G8,G11, "m")*$H$2/1000</f>
         <v>-504</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>-400</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>-200</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -759,9 +766,9 @@
       <c r="E10" s="9"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25">
         <v>-100</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -770,23 +777,23 @@
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <f>C8+SUM(H9:J10)</f>
         <v>112</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <f>DATEDIF($E$2,G11,"y")</f>
         <v>57</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <f>DATEDIF($F$2,G11,"y")</f>
         <v>61</v>
       </c>
       <c r="G11" s="11">
         <v>49644</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="12"/>
@@ -801,12 +808,12 @@
       <c r="G12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <f>-DATEDIF(G11,G14, "m")*3</f>
         <v>-111</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="2:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
@@ -827,7 +834,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <f>DATEDIF($F$2,G14,"y")</f>
         <v>65</v>
       </c>
@@ -835,7 +842,7 @@
         <v>50771</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="9"/>
@@ -849,11 +856,11 @@
       <c r="G15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <f>-DATEDIF(G14,G16, "m")*3</f>
         <v>-162</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <f>DATEDIF(G14,G16, "m")*J2/1000</f>
         <v>162</v>
       </c>
@@ -866,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <f>DATEDIF($E$2,G16,"y")</f>
         <v>65</v>
       </c>

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB3C99E-7732-4037-A5B4-2C3A6F4DDAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A41A4-1458-4A03-A579-A3FC1281F192}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2355" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>cpf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Background: https://tanbinvest.dreamhosters.com/21667/21nestegg-enuf2preempt-stressful-return2u-s/</t>
   </si>
@@ -51,9 +39,6 @@
   </si>
   <si>
     <t>dry-up[2]</t>
-  </si>
-  <si>
-    <t>tgt bal</t>
   </si>
   <si>
     <t>4.5Y window</t>
@@ -92,10 +77,6 @@
     <t>4k/M?</t>
   </si>
   <si>
-    <t>non-CPF
-[1]</t>
-  </si>
-  <si>
     <t>sal/Y
 $100,000</t>
   </si>
@@ -119,19 +100,33 @@
   </si>
   <si>
     <t>&lt;-top up to ERS aft age 55</t>
+  </si>
+  <si>
+    <t>4Y window</t>
+  </si>
+  <si>
+    <t>tgt bal[1]</t>
+  </si>
+  <si>
+    <t>non-
+CPF</t>
+  </si>
+  <si>
+    <t>CPF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="mmm/yyyy"/>
     <numFmt numFmtId="167" formatCode="&quot;age&quot;\ 00.0"/>
     <numFmt numFmtId="168" formatCode="General&quot;k&quot;"/>
+    <numFmt numFmtId="169" formatCode="\+0\k;\-0\k;0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -243,7 +238,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -267,6 +261,7 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,17 +545,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L24"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
@@ -574,7 +569,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C2" s="26"/>
       <c r="E2" s="6">
@@ -595,54 +590,54 @@
         <v>100,000</v>
       </c>
       <c r="J2" s="7" t="str">
-        <f>RIGHT(I14,LEN(I14)-FIND("$",I14))</f>
+        <f>RIGHT(I16,LEN(I16)-FIND("$",I16))</f>
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>12</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>1120</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="24">
-        <f>DATEDIF($E$2,G4,"y")</f>
-        <v>43</v>
-      </c>
-      <c r="F4" s="24">
-        <f>DATEDIF($F$2,G4,"y")</f>
-        <v>47</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="E4" s="23">
+        <f>YEARFRAC($E$2,G4)</f>
+        <v>43.416666666666664</v>
+      </c>
+      <c r="F4" s="23">
+        <f>YEARFRAC($F$2,G4)</f>
+        <v>47.916666666666664</v>
+      </c>
+      <c r="G4" s="10">
         <v>44531</v>
       </c>
       <c r="H4" s="9"/>
@@ -654,236 +649,218 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="25">
-        <f>-DATEDIF(G4,G8, "m")*$H$2/1000</f>
-        <v>-504</v>
+      <c r="H5" s="24">
+        <f>-DATEDIF($G$4,G6, "m")*$H$2/1000</f>
+        <v>-216</v>
       </c>
       <c r="I5" s="25">
-        <f>DATEDIF(G4,G8, "y")*$I$2/1000</f>
-        <v>700</v>
+        <f>DATEDIF($G$4,G6, "y")*$I$2/1000</f>
+        <v>300</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="L5" s="3" t="str">
-        <f ca="1">IFERROR(MID(#REF!,ROW(INDIRECT("1:"&amp;LEN(#REF!))),1)*1,"")</f>
-        <v/>
-      </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9">
+        <f>C4+SUM(H5:J5)</f>
+        <v>1204</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="24">
-        <f>DATEDIF($E$2,G6,"y")</f>
-        <v>50</v>
-      </c>
-      <c r="F6" s="24">
-        <f>DATEDIF($F$2,G6,"y")</f>
-        <v>54</v>
-      </c>
-      <c r="G6" s="11">
-        <v>47088</v>
+      <c r="E6" s="23">
+        <f>YEARFRAC($E$2,G6)</f>
+        <v>46.416666666666664</v>
+      </c>
+      <c r="F6" s="23">
+        <f>YEARFRAC($F$2,G6)</f>
+        <v>50.916666666666664</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45627</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="J6" s="9"/>
-      <c r="L6" s="3" t="str">
-        <f ca="1">_xlfn.TEXTJOIN("",TRUE,L5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="24">
+        <f>-DATEDIF(G6,G8, "m")*$H$2/1000</f>
+        <v>-288</v>
+      </c>
+      <c r="I7" s="25">
+        <f>DATEDIF(G6,G8, "y")*$I$2/1000</f>
+        <v>400</v>
+      </c>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="25">
-        <f>C4+SUM(H5:J5)</f>
-        <v>1316</v>
-      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="24">
-        <f>DATEDIF($E$2,G8,"y")</f>
-        <v>50</v>
-      </c>
-      <c r="F8" s="24">
-        <f>DATEDIF($F$2,G8,"y")</f>
-        <v>54</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="10">
         <v>47088</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="L8" s="3" t="str">
-        <f ca="1">_xlfn.CONCAT(L5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="25">
-        <f>-DATEDIF(G8,G11, "m")*$H$2/1000</f>
-        <v>-504</v>
-      </c>
-      <c r="I9" s="25">
-        <v>-400</v>
-      </c>
-      <c r="J9" s="25">
-        <v>-200</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="I8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="24">
+        <f>C6+SUM(H7:J7)</f>
+        <v>1316</v>
+      </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25">
-        <v>-100</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E10" s="23">
+        <f>YEARFRAC($E$2,G10)</f>
+        <v>50.416666666666664</v>
+      </c>
+      <c r="F10" s="23">
+        <f>YEARFRAC($F$2,G10)</f>
+        <v>54.916666666666664</v>
+      </c>
+      <c r="G10" s="10">
+        <v>47088</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="25">
-        <f>C8+SUM(H9:J10)</f>
-        <v>112</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="24">
-        <f>DATEDIF($E$2,G11,"y")</f>
-        <v>57</v>
-      </c>
-      <c r="F11" s="24">
-        <f>DATEDIF($F$2,G11,"y")</f>
-        <v>61</v>
-      </c>
-      <c r="G11" s="11">
-        <v>49644</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24">
+        <f>-DATEDIF(G10,G13, "m")*$H$2/1000</f>
+        <v>-504</v>
+      </c>
+      <c r="I11" s="24">
+        <v>-400</v>
+      </c>
+      <c r="J11" s="24">
+        <v>-200</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="25">
-        <f>-DATEDIF(G11,G14, "m")*3</f>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24">
+        <v>-100</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="24">
+        <f>C10+SUM(H11:J12)</f>
+        <v>112</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="23">
+        <f>YEARFRAC($E$2,G13)</f>
+        <v>57.416666666666664</v>
+      </c>
+      <c r="F13" s="23">
+        <f>YEARFRAC($F$2,G13)</f>
+        <v>61.916666666666664</v>
+      </c>
+      <c r="G13" s="10">
+        <v>49644</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="24">
+        <f>-DATEDIF(G13,G16, "m")*3</f>
         <v>-111</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="2:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9">
-        <f>C11+SUM(H12:J12)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="24">
-        <f>DATEDIF($F$2,G14,"y")</f>
-        <v>65</v>
-      </c>
-      <c r="G14" s="11">
-        <v>50771</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="25">
-        <f>-DATEDIF(G14,G16, "m")*3</f>
-        <v>-162</v>
-      </c>
-      <c r="I15" s="25">
-        <f>DATEDIF(G14,G16, "m")*J2/1000</f>
-        <v>162</v>
-      </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="9"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="2:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9">
-        <f>C14+SUM(H15:J15)</f>
+        <f>C13+SUM(H14:J14)</f>
         <v>1</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="24">
-        <f>DATEDIF($E$2,G16,"y")</f>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23">
+        <f>YEARFRAC($F$2,G16)</f>
         <v>65</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11">
-        <v>52413</v>
+      <c r="G16" s="10">
+        <v>50771</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>18</v>
+      <c r="I16" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="J16" s="9"/>
     </row>
@@ -892,52 +869,92 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="24">
+        <f>-DATEDIF(G16,G18, "m")*3</f>
+        <v>-162</v>
+      </c>
+      <c r="I17" s="24">
+        <f>DATEDIF(G16,G18, "m")*J2/1000</f>
+        <v>162</v>
+      </c>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9">
+        <f>C16+SUM(H17:J17)</f>
+        <v>1</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
+      <c r="E18" s="23">
+        <f>YEARFRAC($E$2,G18)</f>
+        <v>65</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="10">
+        <v>52413</v>
+      </c>
       <c r="H18" s="9"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="I18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -964,22 +981,22 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A41A4-1458-4A03-A579-A3FC1281F192}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4C70CB-D3FF-4138-883A-1DB3829F33F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="2355" windowWidth="14415" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -26,9 +35,6 @@
     <t>Background: https://tanbinvest.dreamhosters.com/21667/21nestegg-enuf2preempt-stressful-return2u-s/</t>
   </si>
   <si>
-    <t>[1] includes (x-ccy) assets that can convert to cash</t>
-  </si>
-  <si>
     <t>snapMonth</t>
   </si>
   <si>
@@ -96,9 +102,6 @@
     <t>dateDif</t>
   </si>
   <si>
-    <t>&lt;-top up to wife cprSA before 55[3]</t>
-  </si>
-  <si>
     <t>&lt;-top up to ERS aft age 55</t>
   </si>
   <si>
@@ -108,18 +111,23 @@
     <t>tgt bal[1]</t>
   </si>
   <si>
-    <t>non-
-CPF</t>
-  </si>
-  <si>
-    <t>CPF</t>
+    <t>&lt;-top up to wife cpfSA before 55[3]</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>[1] includes x-ccy assets that can convert to cash, excluding CPF,SRS,rEstate,,,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -127,6 +135,7 @@
     <numFmt numFmtId="167" formatCode="&quot;age&quot;\ 00.0"/>
     <numFmt numFmtId="168" formatCode="General&quot;k&quot;"/>
     <numFmt numFmtId="169" formatCode="\+0\k;\-0\k;0"/>
+    <numFmt numFmtId="170" formatCode="#,#00\k"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -227,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -262,8 +271,13 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,14 +562,14 @@
   <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
@@ -568,10 +582,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="28"/>
       <c r="E2" s="6">
         <f>DATEVALUE(CLEAN(RIGHT(E3,LEN(E3)-FIND(":",E3))))</f>
         <v>28672</v>
@@ -595,50 +609,50 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>28</v>
+      <c r="B3" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
-      <c r="C4" s="24">
-        <v>1120</v>
+      <c r="C4" s="26">
+        <v>1144</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="23">
         <f>YEARFRAC($E$2,G4)</f>
-        <v>43.416666666666664</v>
+        <v>43.5</v>
       </c>
       <c r="F4" s="23">
         <f>YEARFRAC($F$2,G4)</f>
-        <v>47.916666666666664</v>
+        <v>48</v>
       </c>
       <c r="G4" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -646,81 +660,81 @@
     </row>
     <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="24">
         <f>-DATEDIF($G$4,G6, "m")*$H$2/1000</f>
-        <v>-216</v>
+        <v>-144</v>
       </c>
       <c r="I5" s="25">
         <f>DATEDIF($G$4,G6, "y")*$I$2/1000</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="9">
+      <c r="C6" s="26">
         <f>C4+SUM(H5:J5)</f>
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="23">
         <f>YEARFRAC($E$2,G6)</f>
-        <v>46.416666666666664</v>
+        <v>45.5</v>
       </c>
       <c r="F6" s="23">
         <f>YEARFRAC($F$2,G6)</f>
-        <v>50.916666666666664</v>
+        <v>50</v>
       </c>
       <c r="G6" s="10">
-        <v>45627</v>
+        <v>45292</v>
       </c>
       <c r="H6" s="9"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="24">
         <f>-DATEDIF(G6,G8, "m")*$H$2/1000</f>
-        <v>-288</v>
+        <v>-360</v>
       </c>
       <c r="I7" s="25">
         <f>DATEDIF(G6,G8, "y")*$I$2/1000</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="9"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="10">
-        <v>47088</v>
+        <v>47119</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
       <c r="F9" s="14"/>
@@ -731,36 +745,36 @@
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="24">
+      <c r="C10" s="26">
         <f>C6+SUM(H7:J7)</f>
-        <v>1316</v>
+        <v>1340</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="23">
         <f>YEARFRAC($E$2,G10)</f>
-        <v>50.416666666666664</v>
+        <v>50.5</v>
       </c>
       <c r="F10" s="23">
         <f>YEARFRAC($F$2,G10)</f>
-        <v>54.916666666666664</v>
+        <v>55</v>
       </c>
       <c r="G10" s="10">
-        <v>47088</v>
+        <v>47119</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" s="24">
         <f>-DATEDIF(G10,G13, "m")*$H$2/1000</f>
@@ -773,12 +787,12 @@
         <v>-200</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="11"/>
@@ -789,52 +803,52 @@
         <v>-100</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="24">
+      <c r="C13" s="26">
         <f>C10+SUM(H11:J12)</f>
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="23">
         <f>YEARFRAC($E$2,G13)</f>
-        <v>57.416666666666664</v>
+        <v>57.5</v>
       </c>
       <c r="F13" s="23">
         <f>YEARFRAC($F$2,G13)</f>
-        <v>61.916666666666664</v>
+        <v>62</v>
       </c>
       <c r="G13" s="10">
-        <v>49644</v>
+        <v>49675</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="24">
         <f>-DATEDIF(G13,G16, "m")*3</f>
-        <v>-111</v>
+        <v>-108</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="2:12" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
@@ -845,9 +859,9 @@
     </row>
     <row r="16" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="9">
+      <c r="C16" s="26">
         <f>C13+SUM(H14:J14)</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="23"/>
@@ -860,18 +874,18 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" s="24">
         <f>-DATEDIF(G16,G18, "m")*3</f>
@@ -885,9 +899,9 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="9">
+      <c r="C18" s="26">
         <f>C16+SUM(H17:J17)</f>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="23">
@@ -900,7 +914,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -938,23 +952,23 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -981,25 +995,26 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4C70CB-D3FF-4138-883A-1DB3829F33F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A10636-AB02-4CB3-91A2-CB3A900CAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Background: https://tanbinvest.dreamhosters.com/21667/21nestegg-enuf2preempt-stressful-return2u-s/</t>
   </si>
@@ -68,9 +68,6 @@
     <t>[3] wife needs reassurance that she can receive meaningful  amount from her own cpfLife</t>
   </si>
   <si>
-    <t>[2] For simplicity, assume retirement, not a low-pay, low stress job</t>
-  </si>
-  <si>
     <t>edu [4]</t>
   </si>
   <si>
@@ -83,44 +80,76 @@
     <t>4k/M?</t>
   </si>
   <si>
-    <t>sal/Y
+    <t>burnRate/M $6000</t>
+  </si>
+  <si>
+    <t>dateval</t>
+  </si>
+  <si>
+    <t>extractor formula</t>
+  </si>
+  <si>
+    <t>prefix "age" or suffix "k"</t>
+  </si>
+  <si>
+    <t>dateDif</t>
+  </si>
+  <si>
+    <t>&lt;-top up to ERS aft age 55</t>
+  </si>
+  <si>
+    <t>4Y window</t>
+  </si>
+  <si>
+    <t>tgt bal[1]</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>[1] includes x-ccy assets that can convert to cash, excluding CPF,SRS,rEstate,,,</t>
+  </si>
+  <si>
+    <t>[5] burn rate may escalate as kids grow up, but A) we will "tighten belt" if salary drops, and B) kids can work part time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [5] ^</t>
+  </si>
+  <si>
+    <t>wage/Y
 $100,000</t>
   </si>
   <si>
-    <t>burnRate/M $6000</t>
-  </si>
-  <si>
-    <t>dateval</t>
-  </si>
-  <si>
-    <t>extractor formula</t>
-  </si>
-  <si>
-    <t>prefix "age" or suffix "k"</t>
-  </si>
-  <si>
-    <t>dateDif</t>
-  </si>
-  <si>
-    <t>&lt;-top up to ERS aft age 55</t>
-  </si>
-  <si>
-    <t>4Y window</t>
-  </si>
-  <si>
-    <t>tgt bal[1]</t>
-  </si>
-  <si>
-    <t>&lt;-top up to wife cpfSA before 55[3]</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>[1] includes x-ccy assets that can convert to cash, excluding CPF,SRS,rEstate,,,</t>
+    <r>
+      <t xml:space="preserve">&lt;-top up to wife cpfSA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  55[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>[2] For simplicity, assume retirement, not semi-retirmnt [low-pay, low stress] job</t>
   </si>
 </sst>
 </file>
@@ -137,7 +166,7 @@
     <numFmt numFmtId="169" formatCode="\+0\k;\-0\k;0"/>
     <numFmt numFmtId="170" formatCode="#,#00\k"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +197,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -273,11 +310,11 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,10 +619,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="28"/>
+      <c r="B2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="29"/>
       <c r="E2" s="6">
         <f>DATEVALUE(CLEAN(RIGHT(E3,LEN(E3)-FIND(":",E3))))</f>
         <v>28672</v>
@@ -609,11 +646,11 @@
       </c>
     </row>
     <row r="3" spans="2:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
-        <v>27</v>
+      <c r="B3" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="18" t="s">
@@ -626,10 +663,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>9</v>
@@ -705,7 +742,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="24">
         <f>-DATEDIF(G6,G8, "m")*$H$2/1000</f>
@@ -763,7 +800,7 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="11"/>
     </row>
@@ -787,7 +824,7 @@
         <v>-200</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -797,13 +834,15 @@
       <c r="E12" s="9"/>
       <c r="F12" s="11"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24">
         <v>-100</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -874,7 +913,7 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="9"/>
     </row>
@@ -914,7 +953,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -952,13 +991,13 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -968,14 +1007,19 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
@@ -995,22 +1039,22 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A10636-AB02-4CB3-91A2-CB3A900CAAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA7543-9799-4F77-85F8-2F331FC326EE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,19 +11,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MSExcel tricks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -149,7 +140,7 @@
     </r>
   </si>
   <si>
-    <t>[2] For simplicity, assume retirement, not semi-retirmnt [low-pay, low stress] job</t>
+    <t>[2] assume retirement, not a semi-retirmnt job [low-pay, low stress], and no income from children or NNIA</t>
   </si>
 </sst>
 </file>
@@ -599,7 +590,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +668,7 @@
     <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="26">
-        <v>1144</v>
+        <v>1116</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="23">
@@ -706,11 +697,11 @@
       </c>
       <c r="H5" s="24">
         <f>-DATEDIF($G$4,G6, "m")*$H$2/1000</f>
-        <v>-144</v>
+        <v>-216</v>
       </c>
       <c r="I5" s="25">
         <f>DATEDIF($G$4,G6, "y")*$I$2/1000</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -723,14 +714,14 @@
       <c r="D6" s="9"/>
       <c r="E6" s="23">
         <f>YEARFRAC($E$2,G6)</f>
-        <v>45.5</v>
+        <v>46.5</v>
       </c>
       <c r="F6" s="23">
         <f>YEARFRAC($F$2,G6)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="10">
-        <v>45292</v>
+        <v>45658</v>
       </c>
       <c r="H6" s="9"/>
       <c r="J6" s="9"/>
@@ -746,11 +737,11 @@
       </c>
       <c r="H7" s="24">
         <f>-DATEDIF(G6,G8, "m")*$H$2/1000</f>
-        <v>-360</v>
+        <v>-288</v>
       </c>
       <c r="I7" s="25">
         <f>DATEDIF(G6,G8, "y")*$I$2/1000</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -784,7 +775,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="26">
         <f>C6+SUM(H7:J7)</f>
-        <v>1340</v>
+        <v>1312</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="23">
@@ -849,7 +840,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="26">
         <f>C10+SUM(H11:J12)</f>
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="23">
@@ -900,7 +891,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="26">
         <f>C13+SUM(H14:J14)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="23"/>
@@ -940,7 +931,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="26">
         <f>C16+SUM(H17:J17)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="23">

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA7543-9799-4F77-85F8-2F331FC326EE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6A9D7-6CC0-4405-9404-10686AA3CBFA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -156,6 +156,7 @@
     <numFmt numFmtId="168" formatCode="General&quot;k&quot;"/>
     <numFmt numFmtId="169" formatCode="\+0\k;\-0\k;0"/>
     <numFmt numFmtId="170" formatCode="#,#00\k"/>
+    <numFmt numFmtId="171" formatCode="#,##0\k"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -264,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -307,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +611,7 @@
     <col min="12" max="12" width="9.140625" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="29" t="s">
         <v>22</v>
@@ -889,7 +892,7 @@
     </row>
     <row r="16" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="26">
+      <c r="C16" s="30">
         <f>C13+SUM(H14:J14)</f>
         <v>0</v>
       </c>
@@ -929,7 +932,7 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="26">
+      <c r="C18" s="30">
         <f>C16+SUM(H17:J17)</f>
         <v>0</v>
       </c>

--- a/msff/xls/noNeedUSA.xlsx
+++ b/msff/xls/noNeedUSA.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6A9D7-6CC0-4405-9404-10686AA3CBFA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111B87ED-AAAD-41A7-A144-17068655328A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="2355" windowWidth="16185" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="MSExcel tricks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Background: https://tanbinvest.dreamhosters.com/21667/21nestegg-enuf2preempt-stressful-return2u-s/</t>
   </si>
@@ -108,10 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">         [5] ^</t>
-  </si>
-  <si>
-    <t>wage/Y
-$100,000</t>
   </si>
   <si>
     <r>
@@ -141,6 +137,13 @@
   </si>
   <si>
     <t>[2] assume retirement, not a semi-retirmnt job [low-pay, low stress], and no income from children or NNIA</t>
+  </si>
+  <si>
+    <t>income[6]/Y
+$100,000</t>
+  </si>
+  <si>
+    <t>[6] mostly wage. Div/interest is unstable and assumed zero.</t>
   </si>
 </sst>
 </file>
@@ -305,10 +308,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L27"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +608,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
     <col min="12" max="12" width="9.140625" style="3"/>
@@ -613,10 +616,10 @@
   <sheetData>
     <row r="1" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="30"/>
       <c r="E2" s="6">
         <f>DATEVALUE(CLEAN(RIGHT(E3,LEN(E3)-FIND(":",E3))))</f>
         <v>28672</v>
@@ -660,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>9</v>
@@ -836,7 +839,7 @@
         <v>-100</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -892,7 +895,7 @@
     </row>
     <row r="16" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <f>C13+SUM(H14:J14)</f>
         <v>0</v>
       </c>
@@ -932,7 +935,7 @@
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="30">
+      <c r="C18" s="29">
         <f>C16+SUM(H17:J17)</f>
         <v>0</v>
       </c>
@@ -991,7 +994,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1007,6 +1010,11 @@
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
